--- a/cars.xlsx
+++ b/cars.xlsx
@@ -7,17 +7,19 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cars" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020+" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="xxxcars" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault 20.05.2020" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renauult 19.05.2020" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31.05.2020" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020+" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="xxxcars" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault 20.05.2020" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renauult 19.05.2020" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'26.05.2020+'!$A$1:$V$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'26.05.2020'!$A$1:$V$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'31.05.2020'!$A$1:$V$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'26.05.2020+'!$A$1:$V$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'26.05.2020'!$A$1:$V$61</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -483,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,7 +1280,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2016 Renault Megane DYNAMIQUE NAV DCI</t>
+          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1293,7 +1295,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Dynamique Nav</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1308,17 +1310,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>48310 Miles</t>
+          <t>42000 Miles</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aughnacloy</t>
+          <t>Magherafelt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1356,7 +1358,11 @@
           <t>£0 p.a.</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
           <t>72.4 mpg</t>
@@ -1369,24 +1375,24 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>12.1 seconds</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262182213</t>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262017314</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>262182213</t>
+          <t>262017314</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+          <t>2016 Renault Megane DYNAMIQUE NAV DCI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1401,7 +1407,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dynamique Nav</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1411,22 +1417,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>£7250</t>
+          <t>£6995</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>42000 Miles</t>
+          <t>48310 Miles</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Magherafelt</t>
+          <t>Aughnacloy</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1464,11 +1470,7 @@
           <t>£0 p.a.</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
           <t>72.4 mpg</t>
@@ -1481,17 +1483,17 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>12.1 seconds</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262017314</t>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262182213</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>262017314</t>
+          <t>262182213</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3288,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mar 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+          <t>2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3311,22 +3313,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>£10717</t>
+          <t>£10495</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>29253 Miles</t>
+          <t>47000 Miles</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Portadown</t>
+          <t>Newry</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Metallic - Mercury</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -3386,19 +3388,19 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-Hatch-GT-Line-Nav-1-6-dCi-130-Stop-Start-265346664</t>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>265346664</t>
+          <t>263610549</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+          <t>Dec 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3423,12 +3425,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>£10750</t>
+          <t>£10950</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>47000 Miles</t>
+          <t>38000 Miles</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3438,7 +3440,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Titanium Grey</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3473,7 +3475,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>£20 p.a.</t>
+          <t>£150 p.a.</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -3498,19 +3500,19 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>263610549</t>
+          <t>260149097</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dec 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+          <t>Apr 2018 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3525,37 +3527,37 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GT Line Nav</t>
+          <t>Dynamique Nav</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>£10950</t>
+          <t>£10995</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>38000 Miles</t>
+          <t>14214 Miles</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Newry</t>
+          <t>Lisburn</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Titanium Grey</t>
+          <t>White</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>1.6 L</t>
+          <t>1.5 L</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -3580,7 +3582,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>104 g/km</t>
+          <t>96 g/km</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3590,39 +3592,39 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>19E</t>
+          <t>15E</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>60.1 mpg</t>
+          <t>68.9 mpg</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>5 l/100km</t>
+          <t>4 l/100km</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>10 seconds</t>
+          <t>11.3 seconds</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>260149097</t>
+          <t>262930305</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Apr 2018 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+          <t>2017 Renault Megane 1.6 dCi Dynamique Nav 5dr</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3642,7 +3644,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3652,22 +3654,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>14214 Miles</t>
+          <t>14800 Miles</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Lisburn</t>
+          <t>Ballymena</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Steel Blue</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.6 L</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3692,7 +3694,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>96 g/km</t>
+          <t>104 g/km</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3702,39 +3704,39 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15E</t>
+          <t>19E</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>68.9 mpg</t>
+          <t>60.1 mpg</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>4 l/100km</t>
+          <t>5 l/100km</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>11.3 seconds</t>
+          <t>10 seconds</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>262930305</t>
+          <t>263012482</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2017 Renault Megane 1.6 dCi Dynamique Nav 5dr</t>
+          <t>Oct 2018 Renault Megane 1.5 dCi Play 5dr</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3749,37 +3751,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dynamique Nav</t>
+          <t>Play</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>£10995</t>
+          <t>£11450</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>14800 Miles</t>
+          <t>16000 Miles</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Ballymena</t>
+          <t>Portadown</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Steel Blue</t>
+          <t>Solid - Glacier White</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>1.6 L</t>
+          <t>1.5 L</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3804,7 +3806,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>104 g/km</t>
+          <t>96 g/km</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3814,39 +3816,39 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19E</t>
+          <t>14E</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>60.1 mpg</t>
+          <t>68.9 mpg</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>5 l/100km</t>
+          <t>4 l/100km</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>10 seconds</t>
+          <t>11.3 seconds</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>263012482</t>
+          <t>265734422</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Oct 2018 Renault Megane 1.5 dCi Play 5dr</t>
+          <t>Jan 2018 Renault Megane 1.2 TCE Dynamique Nav 5dr</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3861,7 +3863,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Play</t>
+          <t>Dynamique Nav</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3871,12 +3873,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>£11450</t>
+          <t>£11495</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16000 Miles</t>
+          <t>14001 Miles</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3886,17 +3888,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Solid - Glacier White</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.2 L</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3916,7 +3918,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>96 g/km</t>
+          <t>120 g/km</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3931,34 +3933,34 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>68.9 mpg</t>
+          <t>42.2 mpg</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>4 l/100km</t>
+          <t>7 l/100km</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>11.3 seconds</t>
+          <t>10.6 seconds</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Dynamique-Nav-1-2-tCe-130-Stop-Start-264108942</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>265734422</t>
+          <t>264108942</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jan 2018 Renault Megane 1.2 TCE Dynamique Nav 5dr</t>
+          <t>Mar 2019 Renault Megane 1.5 Blue dCi 115 Play 5dr</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3973,22 +3975,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dynamique Nav</t>
+          <t>Play</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>£11495</t>
+          <t>£11608</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14001 Miles</t>
+          <t>12325 Miles</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -3998,17 +4000,17 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Renault Id - Arctic White</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>1.2 L</t>
+          <t>1.5 L</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -4028,7 +4030,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>120 g/km</t>
+          <t>101 g/km</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4038,39 +4040,39 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>14E</t>
+          <t>16E</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>42.2 mpg</t>
+          <t>55.4 mpg</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>7 l/100km</t>
+          <t>5 l/100km</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>10.6 seconds</t>
+          <t>11.1 seconds</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Dynamique-Nav-1-2-tCe-130-Stop-Start-264108942</t>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-267915018</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>264108942</t>
+          <t>267915018</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mar 2019 Renault Megane 1.5 Blue dCi 115 Play 5dr</t>
+          <t>2018 Renault Megane 1.2 TCE Dynamique Nav 5dr</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4085,42 +4087,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Play</t>
+          <t>Dynamique Nav</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>£11608</t>
+          <t>£11995</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12325 Miles</t>
+          <t>4679 Miles</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Portadown</t>
+          <t>Belfast</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Renault Id - Arctic White</t>
+          <t>Silver</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.2 L</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -4140,7 +4142,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>101 g/km</t>
+          <t>120 g/km</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4150,39 +4152,39 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>16E</t>
+          <t>14E</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>55.4 mpg</t>
+          <t>42.2 mpg</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>5 l/100km</t>
+          <t>7 l/100km</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>11.1 seconds</t>
+          <t>10.6 seconds</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-267915018</t>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-Hatchback-256292417</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>267915018</t>
+          <t>256292417</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2018 Renault Megane 1.2 TCE Dynamique Nav 5dr</t>
+          <t>2018 Renault Megane 1.2 TCE Iconic 5dr</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4197,7 +4199,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dynamique Nav</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4207,22 +4209,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>£11995</t>
+          <t>£12985</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4679 Miles</t>
+          <t>5155 Miles</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Belfast</t>
+          <t>Derry/Londonderry</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Silver</t>
+          <t>Arctic White</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -4262,7 +4264,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>14E</t>
+          <t>15E</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -4282,19 +4284,19 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-Hatchback-256292417</t>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Iconic-5dr-238437314</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>256292417</t>
+          <t>238437314</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2018 Renault Megane 1.2 TCE Iconic 5dr</t>
+          <t>Aug 2018 Renault Megane 1.2 Tce Dynamique Nav 5Dr</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4309,7 +4311,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>Dynamique Nav</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -4319,22 +4321,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>£12985</t>
+          <t>£12995</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>5155 Miles</t>
+          <t>17431 Miles</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Derry/Londonderry</t>
+          <t>Belfast</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Arctic White</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4374,7 +4376,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>15E</t>
+          <t>14E</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -4394,19 +4396,19 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Iconic-5dr-238437314</t>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-263485200</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>238437314</t>
+          <t>263485200</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Aug 2018 Renault Megane 1.2 Tce Dynamique Nav 5Dr</t>
+          <t>Mar 2019 Renault Megane 1.3 Tce Gt Line 5Dr</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4421,22 +4423,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Dynamique Nav</t>
+          <t>GT Line</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>£12995</t>
+          <t>£13495</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17431 Miles</t>
+          <t>13245 Miles</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -4446,12 +4448,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1.2 L</t>
+          <t>1.3 L</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4476,7 +4478,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>120 g/km</t>
+          <t>132 g/km</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4486,12 +4488,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>14E</t>
+          <t>19E</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>42.2 mpg</t>
+          <t>38.7 mpg</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -4501,24 +4503,24 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>10.6 seconds</t>
+          <t>9.5 seconds</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-263485200</t>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-3-Tce-Gt-Line-5Dr-266346026</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>263485200</t>
+          <t>266346026</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mar 2019 Renault Megane 1.3 Tce Gt Line 5Dr</t>
+          <t>Feb 2019 Renault Megane 1.5 Blue Dci 115 Gt Line 5Dr</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4543,32 +4545,32 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>£13495</t>
+          <t>£13695</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1 Miles</t>
+          <t>4000 Miles</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Belfast</t>
+          <t>Newtownabbey</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Grey</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1.3 L</t>
+          <t>1.5 L</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4588,7 +4590,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>132 g/km</t>
+          <t>107 g/km</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4598,39 +4600,39 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19E</t>
+          <t>16E</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>38.7 mpg</t>
+          <t>53.3 mpg</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>7 l/100km</t>
+          <t>5 l/100km</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>9.5 seconds</t>
+          <t>11.1 seconds</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-3-Tce-Gt-Line-5Dr-266346026</t>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>266346026</t>
+          <t>266319609</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Feb 2019 Renault Megane 1.5 Blue Dci 115 Gt Line 5Dr</t>
+          <t>Sep 2018 Renault Megane 1.6 TCE GT Nav 5dr Auto</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4645,47 +4647,47 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GT Line</t>
+          <t>GT Nav</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>£13695</t>
+          <t>£14350</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4000 Miles</t>
+          <t>12000 Miles</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Newtownabbey</t>
+          <t>Belfast</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Grey</t>
+          <t>Blue</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.6 L</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Automatic</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -4700,7 +4702,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>107 g/km</t>
+          <t>134 g/km</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4710,39 +4712,39 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16E</t>
+          <t>27E</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>53.3 mpg</t>
+          <t>36.2 mpg</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>5 l/100km</t>
+          <t>8 l/100km</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>11.1 seconds</t>
+          <t>7.1 seconds</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-GT-NAV-TCE-AUTO-261148803</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>266319609</t>
+          <t>261148803</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sep 2018 Renault Megane 1.6 TCE GT Nav 5dr Auto</t>
+          <t>Sep 2019 Renault Megane R.S. 1.8 280 5Dr</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4757,22 +4759,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GT Nav</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>£14350</t>
+          <t>£21995</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12000 Miles</t>
+          <t>4800 Miles</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -4782,12 +4784,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Black</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1.6 L</t>
+          <t>1.8 L</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4797,7 +4799,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Automatic</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -4812,7 +4814,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>134 g/km</t>
+          <t>181 g/km</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4822,39 +4824,39 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27E</t>
+          <t>35E</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>36.2 mpg</t>
+          <t>27.7 mpg</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>8 l/100km</t>
+          <t>10 l/100km</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>7.1 seconds</t>
+          <t>5.8 seconds</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-GT-NAV-TCE-AUTO-261148803</t>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-R-S-1-8-280-5Dr-265658333</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>261148803</t>
+          <t>265658333</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sep 2019 Renault Megane R.S. 1.8 280 5Dr</t>
+          <t>Aug 2018 Renault Megane 1.8 280 5dr</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4874,27 +4876,27 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>£21995</t>
+          <t>£22788</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4800 Miles</t>
+          <t>19074 Miles</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Belfast</t>
+          <t>Portadown</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -4924,7 +4926,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>181 g/km</t>
+          <t>161 g/km</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4939,12 +4941,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>27.7 mpg</t>
+          <t>31 mpg</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>10 l/100km</t>
+          <t>9 l/100km</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4954,122 +4956,10 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>http://www.usedcarsni.com/2019-Renault-Megane-R-S-1-8-280-5Dr-265658333</t>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-RS-sport-Cup-Chassis-Bose-1-8-280-Stop-Start-262458471</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
-        <is>
-          <t>265658333</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Aug 2018 Renault Megane 1.8 280 5dr</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>£22788</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>19074 Miles</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Portadown</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>1.8 L</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>161 g/km</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>35E</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>31 mpg</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>9 l/100km</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>5.8 seconds</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-RS-sport-Cup-Chassis-Bose-1-8-280-Stop-Start-262458471</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
         <is>
           <t>262458471</t>
         </is>
@@ -5089,7 +4979,4676 @@
   <dimension ref="A1:V41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.140625" customWidth="1" min="1" max="1"/>
+    <col width="22.140625" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11.7109375" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Trim</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Mileage</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Fuel</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Doors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>MPG</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Acceleration</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" hidden="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jan 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>£5250</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>40000 Miles</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267707979</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>267707979</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>£5450</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>26000 Miles</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>21E</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267217936</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>267217936</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" hidden="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar 2016 Renault Megane 1.5 dCi Limited Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Limited Nav</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>£5750</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>31000 Miles</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-LIMITED-NAV-DCI-265370001</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>265370001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" hidden="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar 2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>£5995</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>67000 Miles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Irvinestown</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-267308649</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>267308649</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" hidden="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>£6250</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>77000 Miles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Enniskillen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-265055701</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>265055701</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" hidden="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Feb 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>£6595</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>35000 Miles</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bangor</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-DYNAMIQUE-NAV-DCI-5d-110-BHP-Low-mileage-264153783</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>264153783</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" hidden="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>£6995</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>42000 Miles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Magherafelt</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262017314</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>262017314</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" hidden="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane DYNAMIQUE NAV DCI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>£6995</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>48310 Miles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Aughnacloy</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262182213</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>262182213</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" hidden="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>£7395</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>31414 Miles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Omagh</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-dCi-110-Dynamique-NAV-265075237</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>265075237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" hidden="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Apr 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>£8350</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>51669 Miles</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-265379048</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>265379048</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" hidden="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sep 2016 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>£8580</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>41828 Miles</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Newtownards</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262808069</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>262808069</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" hidden="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Jun 2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>£8750</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>81000 Miles</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Enniskillen</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-262915731</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>262915731</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" hidden="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Nov 2016 Renault Megane 1.2 TCE Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>£8888</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>31289 Miles</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>County Down</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>120 g/km</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>£30 p.a.</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-257246016</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>257246016</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" hidden="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sep 2016 Renault Megane 1.2 Tce Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>£8888</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>31649 Miles</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>120 g/km</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>£30 p.a.</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-265139938</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>265139938</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" hidden="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jun 2016 Renault Megane 1.5 dCi Dynamique S Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Dynamique S Nav</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>£8950</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>56000 Miles</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cullybackey</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-S-NAV-DC-264927857</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>264927857</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>£8995</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>33315 Miles</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Newtownards</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-263206807</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>263206807</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" hidden="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>£9345</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>39500 Miles</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Derry/Londonderry</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Titanium Grey</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-dCi-Dynamique-Nav-5dr-265732622</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>265732622</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>£9395</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>28001 Miles</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-264485144</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>264485144</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" hidden="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>£9450</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>69000 Miles</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Claudy</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Turbo Diesel</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Manual 6 speed</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>95 g/km</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-256758574</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>256758574</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" hidden="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>£9595</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>45170 Miles</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Omagh</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-NIL-ROAD-TAX-263086410</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>263086410</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" hidden="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>£9695</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>37000 Miles</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Limavady</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-264464648</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>264464648</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" hidden="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jul 2016 Renault Megane 1.5 Dci Signature Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>£9795</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>46103 Miles</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>105 g/km</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-264892030</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>264892030</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" hidden="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jul 2016 Renault Megane 1.5 dCi Dynamique S Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Dynamique S Nav</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>£9995</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>18254 Miles</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Illusion - Flame Red</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-Dynamique-S-Nav-1-5-Dci-268065631</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>268065631</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jun 2017 Renault Megane 1.5 Dci Signature Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Signature Nav</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>£10400</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>22233 Miles</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>101 g/km</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-263320333</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>263320333</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" hidden="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>£10495</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>47000 Miles</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Newry</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>263610549</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mar 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>£10717</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>29253 Miles</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Metallic - Mercury</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-Hatch-GT-Line-Nav-1-6-dCi-130-Stop-Start-265346664</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>265346664</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" hidden="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Dec 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>£10950</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>38000 Miles</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Newry</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Titanium Grey</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>260149097</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Apr 2018 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>£10995</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>14214 Miles</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Lisburn</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>262930305</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.6 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>£10995</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>14800 Miles</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ballymena</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Steel Blue</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>263012482</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" hidden="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oct 2018 Renault Megane 1.5 dCi Play 5dr</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>£11450</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>16000 Miles</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Solid - Glacier White</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>265734422</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jan 2018 Renault Megane 1.2 TCE Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>£11495</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>14001 Miles</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>120 g/km</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Dynamique-Nav-1-2-tCe-130-Stop-Start-264108942</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>264108942</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" hidden="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mar 2019 Renault Megane 1.5 Blue dCi 115 Play 5dr</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>£11608</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>12325 Miles</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Renault Id - Arctic White</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>101 g/km</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>55.4 mpg</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-267915018</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>267915018</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2018 Renault Megane 1.2 TCE Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>£11995</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>4679 Miles</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>120 g/km</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-Hatchback-256292417</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>256292417</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" hidden="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2018 Renault Megane 1.2 TCE Iconic 5dr</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Iconic</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>£12985</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>5155 Miles</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Derry/Londonderry</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Arctic White</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>120 g/km</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Iconic-5dr-238437314</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>238437314</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" hidden="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Aug 2018 Renault Megane 1.2 Tce Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>£12995</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>17431 Miles</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>120 g/km</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-263485200</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>263485200</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" hidden="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mar 2019 Renault Megane 1.3 Tce Gt Line 5Dr</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GT Line</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>£13495</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>13245 Miles</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1.3 L</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>132 g/km</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>38.7 mpg</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>9.5 seconds</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-3-Tce-Gt-Line-5Dr-266346026</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>266346026</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" hidden="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Feb 2019 Renault Megane 1.5 Blue Dci 115 Gt Line 5Dr</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GT Line</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>£13695</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>4000 Miles</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>107 g/km</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>53.3 mpg</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>266319609</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" hidden="1">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sep 2018 Renault Megane 1.6 TCE GT Nav 5dr Auto</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GT Nav</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>£14350</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>12000 Miles</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>134 g/km</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>27E</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>36.2 mpg</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>8 l/100km</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>7.1 seconds</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-GT-NAV-TCE-AUTO-261148803</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>261148803</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" hidden="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sep 2019 Renault Megane R.S. 1.8 280 5Dr</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>£21995</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>4800 Miles</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.8 L</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>181 g/km</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>35E</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>27.7 mpg</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>10 l/100km</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>5.8 seconds</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-R-S-1-8-280-5Dr-265658333</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>265658333</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" hidden="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Aug 2018 Renault Megane 1.8 280 5dr</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>£22788</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>19074 Miles</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.8 L</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>161 g/km</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>35E</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>31 mpg</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>9 l/100km</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>5.8 seconds</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-RS-sport-Cup-Chassis-Bose-1-8-280-Stop-Start-262458471</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>262458471</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:V41">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Dynamique Nav"/>
+        <filter val="Dynamique S Nav"/>
+        <filter val="GT Line Nav"/>
+        <filter val="Signature Nav"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2017"/>
+        <filter val="2018"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="£10400"/>
+        <filter val="£10717"/>
+        <filter val="£10995"/>
+        <filter val="£11450"/>
+        <filter val="£11495"/>
+        <filter val="£11608"/>
+        <filter val="£11995"/>
+        <filter val="£5450"/>
+        <filter val="£5750"/>
+        <filter val="£7395"/>
+        <filter val="£8580"/>
+        <filter val="£8888"/>
+        <filter val="£8995"/>
+        <filter val="£9395"/>
+        <filter val="£9995"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="14001 Miles"/>
+        <filter val="14214 Miles"/>
+        <filter val="14800 Miles"/>
+        <filter val="18254 Miles"/>
+        <filter val="22233 Miles"/>
+        <filter val="26000 Miles"/>
+        <filter val="28001 Miles"/>
+        <filter val="29253 Miles"/>
+        <filter val="31289 Miles"/>
+        <filter val="31414 Miles"/>
+        <filter val="31649 Miles"/>
+        <filter val="33315 Miles"/>
+        <filter val="4679 Miles"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U3" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U12" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U15" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U19" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U3" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U12" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U15" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U19" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -9754,7 +14313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16649,25 +21208,21 @@
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U25" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U26" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U41" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U44" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U25" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U26" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U41" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U44" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U25" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U26" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U41" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U44" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U25" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U26" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U41" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U44" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U25" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U26" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U41" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U44" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19919,7 +24474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23174,7 +27729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26313,18 +30868,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29459,7 +34012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -6,22 +6,23 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cars" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1.05.2020" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31.05.2020" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020+" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="xxxcars" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault 20.05.2020" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renauult 19.05.2020" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-06-05" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cars" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1.05.2020" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31.05.2020" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020+" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="xxxcars" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault 20.05.2020" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renauult 19.05.2020" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.05.2020'!$A$1:$V$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'31.05.2020'!$A$1:$V$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'26.05.2020+'!$A$1:$V$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'26.05.2020'!$A$1:$V$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.05.2020'!$A$1:$V$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'31.05.2020'!$A$1:$V$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'26.05.2020+'!$A$1:$V$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'26.05.2020'!$A$1:$V$61</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -3863,6 +3864,3141 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Trim</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Mileage</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Fuel</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Doors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>MPG</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Acceleration</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jan 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>£5250</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>40000 Miles</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267707979</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>267707979</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>£5450</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>26000 Miles</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>21E</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267217936</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>267217936</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar 2016 Renault Megane 1.5 dCi Limited Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Limited Nav</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>£5750</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>31000 Miles</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-LIMITED-NAV-DCI-265370001</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>265370001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar 2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>£5995</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>67000 Miles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Irvinestown</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-267308649</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>267308649</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>£6250</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>77000 Miles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Enniskillen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-265055701</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>265055701</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Feb 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>£6595</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>35000 Miles</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bangor</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-DYNAMIQUE-NAV-DCI-5d-110-BHP-Low-mileage-264153783</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>264153783</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane DYNAMIQUE NAV DCI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>£6995</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>48310 Miles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aughnacloy</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262182213</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>262182213</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>£7250</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>42000 Miles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Magherafelt</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262017314</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>262017314</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>£7395</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>31414 Miles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Omagh</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-dCi-110-Dynamique-NAV-265075237</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>265075237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Apr 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>£8350</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>51252 Miles</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>95 g/km</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-265379048</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>265379048</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jun 2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>£8750</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>81000 Miles</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Enniskillen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-262915731</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>262915731</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sep 2016 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>£8795</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>41826 Miles</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Newtownards</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262808069</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>262808069</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jun 2016 Renault Megane 1.5 dCi Dynamique S Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dynamique S Nav</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>£8950</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>56000 Miles</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cullybackey</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-S-NAV-DC-264927857</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>264927857</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>£9295</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>33500 Miles</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Newtownards</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-263206807</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>263206807</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>£9345</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>39500 Miles</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Derry/Londonderry</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Titanium Grey</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-dCi-Dynamique-Nav-5dr-265732622</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>265732622</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>£9450</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>69000 Miles</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Claudy</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Turbo Diesel</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Manual 6 speed</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>95 g/km</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-256758574</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>256758574</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>£9495</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>27500 Miles</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>95 g/km</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-264485144</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>264485144</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>£9595</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>45170 Miles</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Omagh</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-NIL-ROAD-TAX-263086410</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>263086410</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>£9695</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>37000 Miles</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Limavady</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-264464648</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>264464648</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jul 2016 Renault Megane 1.5 Dci Signature Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>£9995</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>45945 Miles</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>105 g/km</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-264892030</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>264892030</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mar 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>£10717</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>29253 Miles</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Metallic - Mercury</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-Hatch-GT-Line-Nav-1-6-dCi-130-Stop-Start-265346664</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>265346664</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>£10750</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>47000 Miles</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Newry</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>263610549</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dec 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>£10950</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>38000 Miles</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Newry</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Titanium Grey</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>260149097</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.6 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>£10995</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>14800 Miles</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ballymena</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Steel Blue</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>263012482</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Oct 2018 Renault Megane 1.5 dCi Play 5dr</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>£11450</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>16000 Miles</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Solid - Glacier White</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>265734422</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Apr 2018 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>£11495</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>14212 Miles</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Lisburn</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>262930305</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Feb 2019 Renault Megane 1.5 Blue Dci 115 Gt Line 5Dr</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GT Line</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>£13695</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>9000 Miles</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>107 g/km</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>53.3 mpg</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>266319609</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6990,6 +10126,3377 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Trim</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Mileage</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Fuel</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>MPG</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Acceleration</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>£5250</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40000 Miles</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267707979</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>267707979</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>£5450</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>26000 Miles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>21E</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267217936</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>267217936</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Limited Nav</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>£5750</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>31000 Miles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-LIMITED-NAV-DCI-265370001</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>265370001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>£5995</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>67000 Miles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-267308649</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>267308649</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>£6250</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>77000 Miles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-265055701</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>265055701</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>£6395</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>35000 Miles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-5-DYNAMIQUE-NAV-DCI-5d-110-BHP-Low-mileage-264153783</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>264153783</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>£6995</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>48310 Miles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262182213</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>262182213</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>£7395</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31414 Miles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-5-dCi-110-Dynamique-NAV-265075237</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>265075237</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>£8295</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>41828 Miles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262808069</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>262808069</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>£8350</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>51669 Miles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-265379048</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>265379048</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>£8695</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>33315 Miles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-263206807</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>263206807</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>£8750</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>81000 Miles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-262915731</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>262915731</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>£8888</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>31289 Miles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>£30 p.a.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-257246016</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>257246016</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>£8888</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>31649 Miles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>£30 p.a.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-265139938</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>265139938</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Dynamique S Nav</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>£8950</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>56000 Miles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-S-NAV-DC-264927857</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>264927857</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>£9195</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>28001 Miles</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-264485144</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>264485144</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>£9345</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>39500 Miles</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-dCi-Dynamique-Nav-5dr-265732622</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>265732622</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>£9450</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>69000 Miles</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Turbo Diesel</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Manual 6 speed</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-256758574</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>256758574</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>£9595</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>45170 Miles</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-NIL-ROAD-TAX-263086410</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>263086410</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>£9695</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>37000 Miles</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-264464648</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>264464648</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>£9795</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>46103 Miles</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-264892030</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>264892030</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dynamique S Nav</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>£9995</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>18254 Miles</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-Dynamique-S-Nav-1-5-Dci-268065631</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>268065631</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Signature Nav</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>£10400</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>22233 Miles</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-263320333</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>263320333</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>£10490</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>14424 Miles</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-268049597</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>268049597</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>£10495</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>47000 Miles</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>263610549</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>£10950</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>38000 Miles</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>260149097</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>£10990</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>17431 Miles</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-263485200</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>263485200</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>£10995</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>14214 Miles</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>262930305</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>£10995</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>14800 Miles</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>263012482</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>£11450</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>16000 Miles</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>265734422</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>£11495</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>14001 Miles</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-Dynamique-Nav-1-2-tCe-130-Stop-Start-264108942</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>264108942</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>£11608</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>12325 Miles</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>55.4 mpg</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-267915018</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>267915018</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>£11995</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4679 Miles</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-Hatchback-256292417</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>256292417</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>£11995</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10223 Miles</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>55.4 mpg</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-268541673</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>268541673</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Iconic</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>£12985</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5155 Miles</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Iconic-5dr-238437314</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>238437314</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GT Line</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>£13495</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>13245 Miles</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.3 L</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>38.7 mpg</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>9.5 seconds</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-1-3-Tce-Gt-Line-5Dr-266346026</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>266346026</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GT Line</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>£13695</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4000 Miles</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>53.3 mpg</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>266319609</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GT Nav</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>£14350</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>12000 Miles</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>27E</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>36.2 mpg</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>8 l/100km</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>7.1 seconds</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-GT-NAV-TCE-AUTO-261148803</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>261148803</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>£21995</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4800 Miles</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.8 L</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>35E</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>27.7 mpg</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>10 l/100km</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5.8 seconds</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-R-S-1-8-280-5Dr-265658333</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>265658333</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>£22788</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>19074 Miles</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.8 L</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>35E</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>31 mpg</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>9 l/100km</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>5.8 seconds</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-RS-sport-Cup-Chassis-Bose-1-8-280-Stop-Start-262458471</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>262458471</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11531,7 +18038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16204,7 +22711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20878,7 +27385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27791,7 +34298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31043,7 +37550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34298,7 +40805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37446,3139 +43953,4 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Trim</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Mileage</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Colour</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Engine</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Fuel</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Transmission</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Doors</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Body</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Tax</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>MPG</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>KM</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Acceleration</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Jan 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>£5250</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>40000 Miles</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Belfast</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267707979</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>267707979</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mar 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>£5450</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>26000 Miles</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Belfast</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>21E</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267217936</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>267217936</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mar 2016 Renault Megane 1.5 dCi Limited Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Limited Nav</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>£5750</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>31000 Miles</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Belfast</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-LIMITED-NAV-DCI-265370001</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>265370001</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mar 2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Expression+</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>£5995</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>67000 Miles</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Irvinestown</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-267308649</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>267308649</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Expression+</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>£6250</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>77000 Miles</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Enniskillen</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-265055701</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>265055701</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Feb 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>£6595</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>35000 Miles</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Bangor</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-DYNAMIQUE-NAV-DCI-5d-110-BHP-Low-mileage-264153783</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>264153783</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2016 Renault Megane DYNAMIQUE NAV DCI</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>£6995</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>48310 Miles</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Aughnacloy</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262182213</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>262182213</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>£7250</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>42000 Miles</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Magherafelt</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262017314</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>262017314</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>£7395</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>31414 Miles</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Omagh</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-dCi-110-Dynamique-NAV-265075237</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>265075237</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Apr 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>£8350</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>51252 Miles</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Newtownabbey</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>95 g/km</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-265379048</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>265379048</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jun 2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>£8750</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>81000 Miles</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Enniskillen</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-262915731</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>262915731</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sep 2016 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>£8795</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>41826 Miles</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Newtownards</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262808069</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>262808069</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jun 2016 Renault Megane 1.5 dCi Dynamique S Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Dynamique S Nav</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>£8950</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>56000 Miles</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Cullybackey</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-S-NAV-DC-264927857</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>264927857</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>£9295</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>33500 Miles</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Newtownards</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-263206807</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>263206807</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>£9345</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>39500 Miles</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Derry/Londonderry</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Titanium Grey</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-dCi-Dynamique-Nav-5dr-265732622</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>265732622</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>£9450</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>69000 Miles</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Claudy</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Turbo Diesel</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Manual 6 speed</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>95 g/km</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-256758574</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>256758574</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>£9495</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>27500 Miles</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Newtownabbey</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>95 g/km</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-264485144</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>264485144</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>£9595</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>45170 Miles</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Omagh</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-NIL-ROAD-TAX-263086410</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>263086410</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>£9695</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>37000 Miles</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Limavady</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-264464648</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>264464648</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Jul 2016 Renault Megane 1.5 Dci Signature Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>£9995</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>45945 Miles</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Belfast</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>105 g/km</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>£20 p.a.</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-264892030</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>264892030</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mar 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GT Line Nav</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>£10717</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>29253 Miles</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Portadown</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Metallic - Mercury</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>104 g/km</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>£20 p.a.</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>60.1 mpg</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>10 seconds</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-Hatch-GT-Line-Nav-1-6-dCi-130-Stop-Start-265346664</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>265346664</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GT Line Nav</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>£10750</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>47000 Miles</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Newry</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>104 g/km</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>£20 p.a.</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>60.1 mpg</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>10 seconds</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>263610549</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Dec 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GT Line Nav</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>£10950</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>38000 Miles</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Newry</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Titanium Grey</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>104 g/km</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>60.1 mpg</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>10 seconds</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>260149097</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.6 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>£10995</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>14800 Miles</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Ballymena</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Steel Blue</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>104 g/km</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>60.1 mpg</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>10 seconds</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>263012482</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Oct 2018 Renault Megane 1.5 dCi Play 5dr</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Play</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>£11450</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>16000 Miles</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Portadown</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Solid - Glacier White</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>14E</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>265734422</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Apr 2018 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>£11495</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>14212 Miles</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Lisburn</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>262930305</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Feb 2019 Renault Megane 1.5 Blue Dci 115 Gt Line 5Dr</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GT Line</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>£13695</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>9000 Miles</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Newtownabbey</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>107 g/km</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>16E</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>53.3 mpg</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>11.1 seconds</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>266319609</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/cars.xlsx
+++ b/cars.xlsx
@@ -6,23 +6,24 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-06-05" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cars" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1.05.2020" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31.05.2020" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020+" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="xxxcars" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault 20.05.2020" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renauult 19.05.2020" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault2" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-06-06" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-06-05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cars" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1.05.2020" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="31.05.2020" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020+" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="26.05.2020" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="xxxcars" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault 20.05.2020" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renauult 19.05.2020" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Renault" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.05.2020'!$A$1:$V$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'31.05.2020'!$A$1:$V$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'26.05.2020+'!$A$1:$V$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'26.05.2020'!$A$1:$V$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.05.2020'!$A$1:$V$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'31.05.2020'!$A$1:$V$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'26.05.2020+'!$A$1:$V$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'26.05.2020'!$A$1:$V$61</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -3864,6 +3865,3156 @@
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="17.42578125" customWidth="1" min="4" max="4"/>
+    <col width="10" bestFit="1" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Trim</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Mileage</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Colour</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Fuel</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Doors</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Body</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>MPG</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Acceleration</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Jan 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>£5250</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>40000 Miles</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267707979</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>267707979</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Mar 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>£5450</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>26000 Miles</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>21E</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267217936</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>267217936</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mar 2016 Renault Megane 1.5 dCi Limited Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Limited Nav</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>£5750</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>31000 Miles</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-LIMITED-NAV-DCI-265370001</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>265370001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mar 2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>£5995</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>67000 Miles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Irvinestown</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-267308649</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>267308649</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>£6250</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>77000 Miles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Enniskillen</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-265055701</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>265055701</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Feb 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>£6595</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>35000 Miles</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bangor</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-DYNAMIQUE-NAV-DCI-5d-110-BHP-Low-mileage-264153783</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>264153783</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane DYNAMIQUE NAV DCI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>£6995</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>48310 Miles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aughnacloy</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262182213</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>262182213</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>£7250</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>42000 Miles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Magherafelt</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262017314</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>262017314</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>£7395</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>31414 Miles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Omagh</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>93 g/km</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-dCi-110-Dynamique-NAV-265075237</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>265075237</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Apr 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>£8350</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>51252 Miles</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>95 g/km</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-265379048</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>265379048</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jun 2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>£8750</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>81000 Miles</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Enniskillen</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-262915731</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>262915731</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sep 2016 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>£8795</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>41826 Miles</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Newtownards</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262808069</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>262808069</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Jun 2016 Renault Megane 1.5 dCi Dynamique S Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Dynamique S Nav</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>£8950</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>56000 Miles</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Cullybackey</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-S-NAV-DC-264927857</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>264927857</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>£9295</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>33500 Miles</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Newtownards</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-263206807</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>263206807</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>£9345</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>39500 Miles</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Derry/Londonderry</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Titanium Grey</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-dCi-Dynamique-Nav-5dr-265732622</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>265732622</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>£9395</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>27500 Miles</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-264485144</t>
+        </is>
+      </c>
+      <c r="V17" t="n">
+        <v>264485144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>£9450</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>69000 Miles</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Claudy</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Turbo Diesel</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Manual 6 speed</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>95 g/km</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-256758574</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>256758574</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>£9595</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>45170 Miles</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Omagh</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-NIL-ROAD-TAX-263086410</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>263086410</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>£9695</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>37000 Miles</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Limavady</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-264464648</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>264464648</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Jul 2016 Renault Megane 1.5 Dci Signature Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>£9995</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>45945 Miles</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Belfast</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>105 g/km</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-264892030</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>264892030</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mar 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>£10717</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>29253 Miles</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Metallic - Mercury</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-Hatch-GT-Line-Nav-1-6-dCi-130-Stop-Start-265346664</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>265346664</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>£10750</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>47000 Miles</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Newry</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>263610549</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Dec 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>£10950</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>38000 Miles</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Newry</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Titanium Grey</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>260149097</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2017 Renault Megane 1.6 dCi Dynamique Nav 5dr</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>£10995</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>14800 Miles</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Ballymena</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Steel Blue</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>104 g/km</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>263012482</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Oct 2018 Renault Megane 1.5 dCi Play 5dr</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>£11450</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>16000 Miles</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Portadown</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Solid - Glacier White</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>265734422</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Apr 2018 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>£11495</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>14212 Miles</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Lisburn</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>96 g/km</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>4 l/km</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>262930305</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Feb 2019 Renault Megane 1.5 Blue Dci 115 Gt Line 5Dr</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GT Line</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>£13695</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>9000 Miles</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Newtownabbey</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Grey</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>5 door</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Hatchback</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>107 g/km</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>53.3 mpg</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>5 l/km</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="U28" s="1" t="inlineStr">
+        <is>
+          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>266319609</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6990,7 +10141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13497,6 +16648,3377 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Make</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Trim</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Mileage</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Engine</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Fuel</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>MPG</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Acceleration</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>£5250</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40000 Miles</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267707979</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>267707979</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>£5450</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>26000 Miles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>21E</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267217936</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>267217936</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Limited Nav</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>£5750</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>31000 Miles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-LIMITED-NAV-DCI-265370001</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>265370001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>£5995</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>67000 Miles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-267308649</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>267308649</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Expression+</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>£6250</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>77000 Miles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-265055701</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>265055701</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>£6395</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>35000 Miles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-5-DYNAMIQUE-NAV-DCI-5d-110-BHP-Low-mileage-264153783</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>264153783</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>£6995</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>48310 Miles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262182213</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>262182213</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>£7395</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31414 Miles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>72.4 mpg</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>12.1 seconds</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-5-dCi-110-Dynamique-NAV-265075237</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>265075237</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>£8295</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>41828 Miles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262808069</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>262808069</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>£8350</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>51669 Miles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-265379048</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>265379048</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>£8695</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>33315 Miles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-263206807</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>263206807</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>£8750</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>81000 Miles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-262915731</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>262915731</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>£8888</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>31289 Miles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>£30 p.a.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-257246016</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>257246016</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>£8888</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>31649 Miles</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>£30 p.a.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-265139938</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>265139938</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Dynamique S Nav</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>£8950</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>56000 Miles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-S-NAV-DC-264927857</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>264927857</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>£9195</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>28001 Miles</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-264485144</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>264485144</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>£9345</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>39500 Miles</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-dCi-Dynamique-Nav-5dr-265732622</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>265732622</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>£9450</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>69000 Miles</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Turbo Diesel</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Manual 6 speed</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-256758574</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>256758574</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>£9595</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>45170 Miles</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-NIL-ROAD-TAX-263086410</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>263086410</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>£9695</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>37000 Miles</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-264464648</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>264464648</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>£9795</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>46103 Miles</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-264892030</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>264892030</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Dynamique S Nav</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>£9995</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>18254 Miles</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>£0 p.a.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2016-Renault-Megane-Dynamique-S-Nav-1-5-Dci-268065631</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>268065631</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Signature Nav</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>£10400</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>22233 Miles</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-263320333</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>263320333</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>£10490</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>14424 Miles</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-268049597</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>268049597</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>£10495</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>47000 Miles</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>£20 p.a.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>263610549</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GT Line Nav</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>£10950</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>38000 Miles</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>260149097</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>£10990</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>17431 Miles</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-263485200</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>263485200</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>£10995</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>14214 Miles</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>262930305</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>£10995</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>14800 Miles</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>60.1 mpg</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>10 seconds</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>263012482</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>£11450</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>16000 Miles</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>68.9 mpg</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>4 l/100km</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>11.3 seconds</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>265734422</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>£11495</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>14001 Miles</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-Dynamique-Nav-1-2-tCe-130-Stop-Start-264108942</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>264108942</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>£11608</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>12325 Miles</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>55.4 mpg</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-267915018</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>267915018</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Dynamique Nav</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>£11995</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4679 Miles</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>14E</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-Hatchback-256292417</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>256292417</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Play</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>£11995</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10223 Miles</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>55.4 mpg</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-268541673</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>268541673</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Iconic</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>£12985</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5155 Miles</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.2 L</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>15E</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>42.2 mpg</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>10.6 seconds</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Iconic-5dr-238437314</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>238437314</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GT Line</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>£13495</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>13245 Miles</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.3 L</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>19E</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>38.7 mpg</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>7 l/100km</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>9.5 seconds</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-1-3-Tce-Gt-Line-5Dr-266346026</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>266346026</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GT Line</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>£13695</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4000 Miles</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.5 L</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Diesel</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>16E</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>53.3 mpg</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>5 l/100km</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>11.1 seconds</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>266319609</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GT Nav</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>£14350</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>12000 Miles</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.6 L</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Automatic</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>27E</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>36.2 mpg</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>8 l/100km</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>7.1 seconds</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-GT-NAV-TCE-AUTO-261148803</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>261148803</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>£21995</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4800 Miles</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>1.8 L</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>35E</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>27.7 mpg</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>10 l/100km</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>5.8 seconds</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-R-S-1-8-280-5Dr-265658333</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>265658333</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Megane</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>£22788</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>19074 Miles</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1.8 L</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>£150 p.a.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>35E</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>31 mpg</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>9 l/100km</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>5.8 seconds</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-RS-sport-Cup-Chassis-Bose-1-8-280-Stop-Start-262458471</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>262458471</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18038,7 +24560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22711,7 +29233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27385,7 +33907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34298,7 +40820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37550,7 +44072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -40803,3154 +47325,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:V28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="17.42578125" customWidth="1" min="4" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" min="22" max="22"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Make</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Trim</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Mileage</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Colour</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Engine</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Fuel</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Transmission</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Doors</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Body</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>CO2</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Tax</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>MPG</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>KM</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Acceleration</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Jan 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>£5250</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>40000 Miles</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Belfast</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267707979</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>267707979</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mar 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>£5450</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>26000 Miles</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Belfast</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>21E</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-267217936</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>267217936</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mar 2016 Renault Megane 1.5 dCi Limited Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Limited Nav</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>£5750</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>31000 Miles</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Belfast</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-LIMITED-NAV-DCI-265370001</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>265370001</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mar 2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Expression+</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>£5995</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>67000 Miles</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Irvinestown</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-267308649</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>267308649</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2016 Renault Megane 1.5 dCi Expression+ 5dr</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Expression+</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>£6250</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>77000 Miles</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Enniskillen</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-EXPRESSION-PLUS-DC-265055701</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>265055701</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Feb 2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>£6595</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>35000 Miles</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Bangor</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-DYNAMIQUE-NAV-DCI-5d-110-BHP-Low-mileage-264153783</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>264153783</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2016 Renault Megane DYNAMIQUE NAV DCI</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>£6995</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>48310 Miles</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Aughnacloy</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262182213</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>262182213</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>£7250</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>42000 Miles</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Magherafelt</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-NAV-DCI-262017314</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>262017314</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2016 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>£7395</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>31414 Miles</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Omagh</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>93 g/km</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>72.4 mpg</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>12.1 seconds</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-dCi-110-Dynamique-NAV-265075237</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>265075237</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Apr 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>£8350</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>51252 Miles</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Newtownabbey</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>95 g/km</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-265379048</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>265379048</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jun 2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>£8750</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>81000 Miles</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Enniskillen</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-262915731</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>262915731</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sep 2016 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>£8795</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>41826 Miles</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Newtownards</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262808069</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>262808069</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Jun 2016 Renault Megane 1.5 dCi Dynamique S Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Dynamique S Nav</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>£8950</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>56000 Miles</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Cullybackey</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-DYNAMIQUE-S-NAV-DC-264927857</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>264927857</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>£9295</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>33500 Miles</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Newtownards</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-263206807</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>263206807</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>£9345</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>39500 Miles</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Derry/Londonderry</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Titanium Grey</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-dCi-Dynamique-Nav-5dr-265732622</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>265732622</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Jan 2017 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>£9395</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>27500 Miles</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Newtownabbey</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U17" s="1" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-264485144</t>
-        </is>
-      </c>
-      <c r="V17" t="n">
-        <v>264485144</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>£9450</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>69000 Miles</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Claudy</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Turbo Diesel</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Manual 6 speed</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>95 g/km</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-256758574</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>256758574</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>£9595</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>45170 Miles</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Omagh</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-NIL-ROAD-TAX-263086410</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>263086410</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.5 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>£9695</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>37000 Miles</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Limavady</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>£0 p.a.</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-DYNAMIQUE-NAV-DCI-264464648</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>264464648</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Jul 2016 Renault Megane 1.5 Dci Signature Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>£9995</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>45945 Miles</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Belfast</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>105 g/km</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>£20 p.a.</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2016-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-264892030</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>264892030</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mar 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>GT Line Nav</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>£10717</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>29253 Miles</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Portadown</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Metallic - Mercury</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>104 g/km</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>£20 p.a.</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>60.1 mpg</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>10 seconds</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-Hatch-GT-Line-Nav-1-6-dCi-130-Stop-Start-265346664</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>265346664</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GT Line Nav</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>£10750</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>47000 Miles</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Newry</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>104 g/km</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>£20 p.a.</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>60.1 mpg</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>10 seconds</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>263610549</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Dec 2017 Renault Megane 1.6 dCi GT Line Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GT Line Nav</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>£10950</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>38000 Miles</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Newry</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Titanium Grey</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>104 g/km</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>60.1 mpg</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>10 seconds</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>260149097</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2017 Renault Megane 1.6 dCi Dynamique Nav 5dr</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>£10995</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>14800 Miles</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Ballymena</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Steel Blue</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>1.6 L</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>104 g/km</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>19E</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>60.1 mpg</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>10 seconds</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>263012482</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Oct 2018 Renault Megane 1.5 dCi Play 5dr</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Play</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>£11450</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>16000 Miles</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Portadown</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Solid - Glacier White</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>14E</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>265734422</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Apr 2018 Renault Megane 1.5 Dci Dynamique Nav 5Dr</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Dynamique Nav</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>£11495</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>14212 Miles</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Lisburn</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>96 g/km</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>15E</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>68.9 mpg</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>4 l/km</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>11.3 seconds</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>262930305</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Feb 2019 Renault Megane 1.5 Blue Dci 115 Gt Line 5Dr</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GT Line</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>£13695</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>9000 Miles</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Newtownabbey</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Grey</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>1.5 L</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Diesel</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>5 door</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Hatchback</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>107 g/km</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>16E</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>53.3 mpg</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>5 l/km</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>11.1 seconds</t>
-        </is>
-      </c>
-      <c r="U28" s="1" t="inlineStr">
-        <is>
-          <t>http://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>266319609</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U17" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="U28" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/cars.xlsx
+++ b/cars.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dynamique S Nav</t>
+          <t>Signature Nav</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>£9995</t>
+          <t>£10400</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18254 Miles</t>
+          <t>22233 Miles</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2341,12 +2341,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>£0 p.a.</t>
+          <t>£150 p.a.</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>15E</t>
+          <t>16E</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2016-Renault-Megane-Dynamique-S-Nav-1-5-Dci-268065631</t>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-263320333</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>268065631</t>
+          <t>263320333</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Signature Nav</t>
+          <t>Dynamique Nav</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>£10400</t>
+          <t>£10490</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>22233 Miles</t>
+          <t>14424 Miles</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.2 L</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2428,32 +2428,32 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>16E</t>
+          <t>14E</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>68.9 mpg</t>
+          <t>42.2 mpg</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4 l/100km</t>
+          <t>7 l/100km</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>11.3 seconds</t>
+          <t>10.6 seconds</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-5-Dci-Signature-Nav-5Dr-263320333</t>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-268049597</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>263320333</t>
+          <t>268049597</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Dynamique Nav</t>
+          <t>GT Line Nav</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2480,22 +2480,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>£10490</t>
+          <t>£10495</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>14424 Miles</t>
+          <t>47000 Miles</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.2 L</t>
+          <t>1.6 L</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2505,37 +2505,37 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>£150 p.a.</t>
+          <t>£20 p.a.</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>14E</t>
+          <t>19E</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>42.2 mpg</t>
+          <t>60.1 mpg</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>7 l/100km</t>
+          <t>5 l/100km</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>10.6 seconds</t>
+          <t>10 seconds</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-268049597</t>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>268049597</t>
+          <t>263610549</t>
         </is>
       </c>
     </row>
@@ -2562,12 +2562,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>£10495</t>
+          <t>£10950</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>47000 Miles</t>
+          <t>38000 Miles</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>£20 p.a.</t>
+          <t>£150 p.a.</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2017-Renault-Megane-GT-LINE-NAV-DCI-263610549</t>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>263610549</t>
+          <t>260149097</t>
         </is>
       </c>
     </row>
@@ -2634,32 +2634,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GT Line Nav</t>
+          <t>Dynamique Nav</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>£10950</t>
+          <t>£10990</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>38000 Miles</t>
+          <t>17431 Miles</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.6 L</t>
+          <t>1.2 L</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2674,32 +2674,32 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>19E</t>
+          <t>14E</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>60.1 mpg</t>
+          <t>42.2 mpg</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>5 l/100km</t>
+          <t>7 l/100km</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>10 seconds</t>
+          <t>10.6 seconds</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-GT-Line-Nav-5dr-HIGH-SPECIFICATION-GT-LINE-NAV-260149097</t>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-263485200</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>260149097</t>
+          <t>263485200</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>£10990</t>
+          <t>£10995</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>17431 Miles</t>
+          <t>14214 Miles</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.2 L</t>
+          <t>1.5 L</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2756,32 +2756,32 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>14E</t>
+          <t>15E</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>42.2 mpg</t>
+          <t>68.9 mpg</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>7 l/100km</t>
+          <t>4 l/100km</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>10.6 seconds</t>
+          <t>11.3 seconds</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-Tce-Dynamique-Nav-5Dr-263485200</t>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>263485200</t>
+          <t>262930305</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2813,12 +2813,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>14214 Miles</t>
+          <t>14800 Miles</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.6 L</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2838,32 +2838,32 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>15E</t>
+          <t>19E</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>68.9 mpg</t>
+          <t>60.1 mpg</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>4 l/100km</t>
+          <t>5 l/100km</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>11.3 seconds</t>
+          <t>10 seconds</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-5-Dci-Dynamique-Nav-5Dr-262930305</t>
+          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>262930305</t>
+          <t>263012482</t>
         </is>
       </c>
     </row>
@@ -2880,27 +2880,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dynamique Nav</t>
+          <t>Play</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>£10995</t>
+          <t>£11450</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>14800 Miles</t>
+          <t>16000 Miles</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.6 L</t>
+          <t>1.5 L</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2920,32 +2920,32 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19E</t>
+          <t>14E</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>60.1 mpg</t>
+          <t>68.9 mpg</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5 l/100km</t>
+          <t>4 l/100km</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>10 seconds</t>
+          <t>11.3 seconds</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2017-Renault-Megane-1-6-dCi-Dynamique-Nav-5dr-263012482</t>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>263012482</t>
+          <t>265734422</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Play</t>
+          <t>Dynamique Nav</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2972,22 +2972,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>£11450</t>
+          <t>£11495</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16000 Miles</t>
+          <t>14001 Miles</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.2 L</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3007,27 +3007,27 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>68.9 mpg</t>
+          <t>42.2 mpg</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>4 l/100km</t>
+          <t>7 l/100km</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>11.3 seconds</t>
+          <t>10.6 seconds</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-Play-1-5-Blue-dCi-115-Stop-Start-265734422</t>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-Dynamique-Nav-1-2-tCe-130-Stop-Start-264108942</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>265734422</t>
+          <t>264108942</t>
         </is>
       </c>
     </row>
@@ -3044,32 +3044,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dynamique Nav</t>
+          <t>Play</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>£11495</t>
+          <t>£11608</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>14001 Miles</t>
+          <t>12325 Miles</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.2 L</t>
+          <t>1.5 L</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3084,32 +3084,32 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>14E</t>
+          <t>16E</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>42.2 mpg</t>
+          <t>55.4 mpg</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>7 l/100km</t>
+          <t>5 l/100km</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>10.6 seconds</t>
+          <t>11.1 seconds</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-Dynamique-Nav-1-2-tCe-130-Stop-Start-264108942</t>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-267915018</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>264108942</t>
+          <t>267915018</t>
         </is>
       </c>
     </row>
@@ -3126,32 +3126,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Play</t>
+          <t>Dynamique Nav</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>£11608</t>
+          <t>£11995</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12325 Miles</t>
+          <t>4679 Miles</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.2 L</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3166,32 +3166,32 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>16E</t>
+          <t>14E</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>55.4 mpg</t>
+          <t>42.2 mpg</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5 l/100km</t>
+          <t>7 l/100km</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>11.1 seconds</t>
+          <t>10.6 seconds</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-267915018</t>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-Hatchback-256292417</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>267915018</t>
+          <t>256292417</t>
         </is>
       </c>
     </row>
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dynamique Nav</t>
+          <t>Play</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3223,17 +3223,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4679 Miles</t>
+          <t>10223 Miles</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.2 L</t>
+          <t>1.5 L</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3248,32 +3248,32 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>14E</t>
+          <t>16E</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>42.2 mpg</t>
+          <t>55.4 mpg</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>7 l/100km</t>
+          <t>5 l/100km</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>10.6 seconds</t>
+          <t>11.1 seconds</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Dynamique-Nav-5dr-Hatchback-256292417</t>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-268541673</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>256292417</t>
+          <t>268541673</t>
         </is>
       </c>
     </row>
@@ -3290,32 +3290,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Play</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>£11995</t>
+          <t>£12985</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10223 Miles</t>
+          <t>5155 Miles</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.2 L</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3330,32 +3330,32 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>16E</t>
+          <t>15E</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>55.4 mpg</t>
+          <t>42.2 mpg</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5 l/100km</t>
+          <t>7 l/100km</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>11.1 seconds</t>
+          <t>10.6 seconds</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2019-Renault-Megane-Hatch-Play-Blue-1-5-dCi-115-Stop-Start-268541673</t>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Iconic-5dr-238437314</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>268541673</t>
+          <t>238437314</t>
         </is>
       </c>
     </row>
@@ -3372,27 +3372,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>GT Line</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>£12985</t>
+          <t>£13495</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5155 Miles</t>
+          <t>13245 Miles</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.2 L</t>
+          <t>1.3 L</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>15E</t>
+          <t>19E</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>42.2 mpg</t>
+          <t>38.7 mpg</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3427,17 +3427,17 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>10.6 seconds</t>
+          <t>9.5 seconds</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2018-Renault-Megane-1-2-TCE-Iconic-5dr-238437314</t>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-1-3-Tce-Gt-Line-5Dr-266346026</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>238437314</t>
+          <t>266346026</t>
         </is>
       </c>
     </row>
@@ -3464,22 +3464,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>£13495</t>
+          <t>£13695</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>13245 Miles</t>
+          <t>4000 Miles</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.3 L</t>
+          <t>1.5 L</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Petrol</t>
+          <t>Diesel</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3494,32 +3494,32 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>19E</t>
+          <t>16E</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>38.7 mpg</t>
+          <t>53.3 mpg</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>7 l/100km</t>
+          <t>5 l/100km</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>9.5 seconds</t>
+          <t>11.1 seconds</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2019-Renault-Megane-1-3-Tce-Gt-Line-5Dr-266346026</t>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>266346026</t>
+          <t>266319609</t>
         </is>
       </c>
     </row>
@@ -3536,37 +3536,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GT Line</t>
+          <t>GT Nav</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>£13695</t>
+          <t>£14350</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4000 Miles</t>
+          <t>12000 Miles</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.5 L</t>
+          <t>1.6 L</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Diesel</t>
+          <t>Petrol</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Automatic</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3576,32 +3576,32 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>16E</t>
+          <t>27E</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>53.3 mpg</t>
+          <t>36.2 mpg</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>5 l/100km</t>
+          <t>8 l/100km</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>11.1 seconds</t>
+          <t>7.1 seconds</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2019-Renault-Megane-1-5-Blue-Dci-115-Gt-Line-5Dr-266319609</t>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-GT-NAV-TCE-AUTO-261148803</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>266319609</t>
+          <t>261148803</t>
         </is>
       </c>
     </row>
@@ -3618,27 +3618,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GT Nav</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>£14350</t>
+          <t>£21995</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12000 Miles</t>
+          <t>4800 Miles</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.6 L</t>
+          <t>1.8 L</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Automatic</t>
+          <t>Manual</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3658,32 +3658,32 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>27E</t>
+          <t>35E</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>36.2 mpg</t>
+          <t>27.7 mpg</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>8 l/100km</t>
+          <t>10 l/100km</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>7.1 seconds</t>
+          <t>5.8 seconds</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2018-Renault-Megane-GT-NAV-TCE-AUTO-261148803</t>
+          <t>https://www.usedcarsni.com/2019-Renault-Megane-R-S-1-8-280-5Dr-265658333</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>261148803</t>
+          <t>265658333</t>
         </is>
       </c>
     </row>
@@ -3705,17 +3705,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>£21995</t>
+          <t>£22788</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4800 Miles</t>
+          <t>19074 Miles</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>27.7 mpg</t>
+          <t>31 mpg</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>10 l/100km</t>
+          <t>9 l/100km</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3760,92 +3760,10 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>https://www.usedcarsni.com/2019-Renault-Megane-R-S-1-8-280-5Dr-265658333</t>
+          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-RS-sport-Cup-Chassis-Bose-1-8-280-Stop-Start-262458471</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
-        <is>
-          <t>265658333</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Megane</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>£22788</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>19074 Miles</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>1.8 L</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Petrol</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>£150 p.a.</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>35E</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>31 mpg</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>9 l/100km</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>5.8 seconds</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>https://www.usedcarsni.com/2018-Renault-Megane-Hatch-RS-sport-Cup-Chassis-Bose-1-8-280-Stop-Start-262458471</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
         <is>
           <t>262458471</t>
         </is>
